--- a/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5afd51ae6bd675b9/桌面/需求优先级打分/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{BFF11474-E2E7-4EF1-BF42-F4067F6EE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE73638-E8B4-42D7-889A-4199C5E9F804}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7EDAB-9216-43E0-933D-311CC53B11F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="3150" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>相对权重</t>
   </si>
@@ -141,14 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.4.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看个人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,9 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t xml:space="preserve">    搜索课件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,38 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  查看成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    平时成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    大作业成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期中成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    成绩构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    期末总评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">手机绑定 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,6 +326,14 @@
   </si>
   <si>
     <t>总价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛版块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,14 +367,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -476,14 +433,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,10 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1633,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1704,7 +1660,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f>SUM((C:C)*2,(D:D))</f>
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2030,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
@@ -2093,15 +2049,15 @@
         <v>27</v>
       </c>
       <c r="F24" s="5">
-        <f>E24/E93</f>
-        <v>2.4042742653606411E-2</v>
+        <f>E24/E86</f>
+        <v>2.5911708253358926E-2</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
       </c>
       <c r="H24" s="5">
-        <f>G24/G93</f>
-        <v>1.5015015015015015E-2</v>
+        <f>G24/G86</f>
+        <v>1.6233766233766232E-2</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -2110,9 +2066,9 @@
         <f>I24/267</f>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
         <f>F24/(H24+J24*0.5)</f>
-        <v>1.2815733165916066</v>
+        <v>1.2969417163257608</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="2"/>
@@ -2133,8 +2089,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="5"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="1"/>
       <c r="M25" s="2"/>
       <c r="N25" s="1"/>
@@ -2161,19 +2117,19 @@
         <v>5</v>
       </c>
       <c r="H26" s="5">
-        <f>G26/G93</f>
-        <v>1.5015015015015015E-2</v>
+        <f>G26/G86</f>
+        <v>1.6233766233766232E-2</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="11">
-        <f t="shared" ref="J26:J88" si="0">I26/267</f>
+      <c r="J26" s="10">
+        <f t="shared" ref="J26:J81" si="0">I26/267</f>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K26" s="12">
-        <f t="shared" ref="K26:K88" si="1">F26/(H26+J26*0.5)</f>
-        <v>1.1726870503597122</v>
+      <c r="K26" s="11">
+        <f t="shared" ref="K26:K81" si="1">F26/(H26+J26*0.5)</f>
+        <v>1.1011515520389532</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2"/>
@@ -2200,18 +2156,18 @@
       <c r="G27" s="1">
         <v>5</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <f>G27/333</f>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="11">
         <f t="shared" si="1"/>
         <v>1.1726870503597122</v>
       </c>
@@ -2240,18 +2196,18 @@
       <c r="G28" s="1">
         <v>5</v>
       </c>
-      <c r="H28" s="11">
-        <f t="shared" ref="H28:H91" si="2">G28/333</f>
+      <c r="H28" s="10">
+        <f t="shared" ref="H28:H84" si="2">G28/333</f>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <f t="shared" si="0"/>
         <v>3.7453183520599251E-3</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="11">
         <f t="shared" si="1"/>
         <v>1.3027252747252747</v>
       </c>
@@ -2280,18 +2236,18 @@
       <c r="G29" s="1">
         <v>6</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <f t="shared" si="2"/>
         <v>1.8018018018018018E-2</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="10">
         <f t="shared" si="0"/>
         <v>3.7453183520599251E-3</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="11">
         <f t="shared" si="1"/>
         <v>1.0557709923664123</v>
       </c>
@@ -2319,18 +2275,18 @@
       <c r="G30" s="1">
         <v>5</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <f t="shared" si="2"/>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="11">
         <f t="shared" si="1"/>
         <v>1.1193830935251798</v>
       </c>
@@ -2361,18 +2317,18 @@
       <c r="G31" s="1">
         <v>5</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <f t="shared" si="2"/>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="11">
         <f t="shared" si="1"/>
         <v>1.279294964028777</v>
       </c>
@@ -2403,18 +2359,18 @@
       <c r="G32" s="1">
         <v>5</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <f t="shared" si="2"/>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="10">
         <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="11">
         <f t="shared" si="1"/>
         <v>1.0874007194244606</v>
       </c>
@@ -2425,110 +2381,112 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>27</v>
+      </c>
+      <c r="F33" s="10">
+        <f>E33/E86</f>
+        <v>2.5911708253358926E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="10">
+        <f>G33/333</f>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="11">
-        <f>G33/333</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="12"/>
+      <c r="J33" s="10">
+        <f>I33/267</f>
+        <v>7.4906367041198503E-3</v>
+      </c>
+      <c r="K33" s="11">
+        <f>F33/(H33*1+J33*0.5)</f>
+        <v>1.3811965782460405</v>
+      </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="2"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1">
-        <v>20</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1.78E-2</v>
+        <v>25</v>
+      </c>
+      <c r="F34" s="10">
+        <f>E34/E86</f>
+        <v>2.3992322456813819E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>7</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
+        <v>5</v>
+      </c>
+      <c r="H34" s="10">
+        <f>G34/333</f>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>6</v>
-      </c>
-      <c r="J34" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K34" s="12">
-        <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
+        <v>2</v>
+      </c>
+      <c r="J34" s="10">
+        <f>I34/267</f>
+        <v>7.4906367041198503E-3</v>
+      </c>
+      <c r="K34" s="11">
+        <f>F34/(H34*1+J34*0.5)</f>
+        <v>1.2788857205981856</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="2"/>
+      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1">
-        <v>20</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>7</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6</v>
-      </c>
-      <c r="J35" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K35" s="12">
-        <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="10">
+        <f>G35/333</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11"/>
       <c r="L35" s="1"/>
       <c r="M35" s="2"/>
       <c r="N35" s="1"/>
@@ -2536,40 +2494,40 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" s="5">
-        <v>2.0400000000000001E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="G36" s="1">
         <v>7</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <f t="shared" si="2"/>
         <v>2.1021021021021023E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>8</v>
-      </c>
-      <c r="J36" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9962546816479401E-2</v>
-      </c>
-      <c r="K36" s="12">
+        <v>6</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K36" s="11">
         <f t="shared" si="1"/>
-        <v>0.56663055295220244</v>
+        <v>0.55181861924686193</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="2"/>
@@ -2578,133 +2536,137 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>6</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>26</v>
+      <c r="A38" s="1">
+        <v>2.2999999999999998</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>23</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>8</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9962546816479401E-2</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="1"/>
+        <v>0.56663055295220244</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="2"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G39" s="1">
-        <v>5</v>
-      </c>
-      <c r="H39" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2</v>
-      </c>
-      <c r="J39" s="11">
-        <f t="shared" si="0"/>
-        <v>7.4906367041198503E-3</v>
-      </c>
-      <c r="K39" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1193830935251798</v>
-      </c>
+      <c r="A39" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="11"/>
       <c r="L39" s="1"/>
       <c r="M39" s="2"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1">
-        <v>24</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G40" s="1">
-        <v>6</v>
-      </c>
-      <c r="H40" s="11">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2</v>
-      </c>
-      <c r="J40" s="11">
-        <f t="shared" si="0"/>
-        <v>7.4906367041198503E-3</v>
-      </c>
-      <c r="K40" s="12">
-        <f t="shared" si="1"/>
-        <v>0.96492558139534901</v>
-      </c>
+      <c r="A40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="11"/>
       <c r="L40" s="1"/>
       <c r="M40" s="2"/>
       <c r="N40" s="1"/>
@@ -2713,77 +2675,77 @@
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F41" s="5">
-        <v>1.8599999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>6</v>
-      </c>
-      <c r="H41" s="11">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
+        <v>5</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="11">
         <f t="shared" si="1"/>
-        <v>0.85464837209302325</v>
+        <v>1.1193830935251798</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
-        <v>36</v>
+      <c r="B42" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>1.8599999999999998E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G42" s="1">
         <v>6</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <f t="shared" si="2"/>
         <v>1.8018018018018018E-2</v>
       </c>
       <c r="I42" s="1">
         <v>2</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="11">
         <f t="shared" si="1"/>
-        <v>0.85464837209302325</v>
+        <v>0.96492558139534901</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="2"/>
@@ -2793,78 +2755,77 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" s="5">
-        <v>1.5100000000000001E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="G43" s="1">
         <v>6</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <f t="shared" si="2"/>
         <v>1.8018018018018018E-2</v>
       </c>
       <c r="I43" s="1">
-        <v>3</v>
-      </c>
-      <c r="J43" s="11">
-        <f t="shared" si="0"/>
-        <v>1.1235955056179775E-2</v>
-      </c>
-      <c r="K43" s="12">
+        <v>2</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="0"/>
+        <v>7.4906367041198503E-3</v>
+      </c>
+      <c r="K43" s="11">
         <f t="shared" si="1"/>
-        <v>0.63885610278372595</v>
+        <v>0.85464837209302325</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="2"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>38</v>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F44" s="5">
-        <f>E44/E93</f>
-        <v>1.6028495102404273E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="G44" s="1">
-        <v>7</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
+        <v>6</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>3</v>
-      </c>
-      <c r="J44" s="11">
-        <f t="shared" si="0"/>
-        <v>1.1235955056179775E-2</v>
-      </c>
-      <c r="K44" s="12">
+        <v>2</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="0"/>
+        <v>7.4906367041198503E-3</v>
+      </c>
+      <c r="K44" s="11">
         <f t="shared" si="1"/>
-        <v>0.60169285541476303</v>
+        <v>0.85464837209302325</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="2"/>
@@ -2874,38 +2835,37 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1">
         <v>6</v>
       </c>
       <c r="D45" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5">
-        <f>E45/1123</f>
-        <v>1.6028495102404273E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>7</v>
-      </c>
-      <c r="H45" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
+        <v>6</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="I45" s="1">
         <v>3</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <f t="shared" si="0"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="11">
         <f t="shared" si="1"/>
-        <v>0.60169285541476303</v>
+        <v>0.63885610278372595</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="2"/>
@@ -2913,21 +2873,41 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="12"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>18</v>
+      </c>
+      <c r="F46" s="5">
+        <f>E46/E86</f>
+        <v>1.7274472168905951E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>7</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="1"/>
+        <v>0.64846552459767659</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="2"/>
       <c r="N46" s="1"/>
@@ -2936,38 +2916,38 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F47" s="5">
         <f>E47/1123</f>
-        <v>1.8699910952804988E-2</v>
+        <v>1.6028495102404273E-2</v>
       </c>
       <c r="G47" s="1">
-        <v>5</v>
-      </c>
-      <c r="H47" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>7</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>6</v>
-      </c>
-      <c r="J47" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K47" s="12">
+        <v>3</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="K47" s="11">
         <f t="shared" si="1"/>
-        <v>0.71235123510061871</v>
+        <v>0.60169285541476303</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="2"/>
@@ -2975,107 +2955,101 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="1">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1">
-        <v>21</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="G48" s="1">
-        <v>5</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I48" s="1">
-        <v>6</v>
-      </c>
-      <c r="J48" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K48" s="12">
-        <f t="shared" si="1"/>
-        <v>0.71235462724935739</v>
-      </c>
+      <c r="A48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="12"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>21</v>
+      </c>
+      <c r="F49" s="5">
+        <f>E49/1123</f>
+        <v>1.8699910952804988E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="1"/>
+        <v>0.71235123510061871</v>
+      </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1">
         <v>7</v>
       </c>
       <c r="D50" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50" s="5">
-        <f>E50/1123</f>
-        <v>1.7809439002671415E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>6</v>
-      </c>
-      <c r="H50" s="11">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
+        <v>5</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I50" s="1">
-        <v>5</v>
-      </c>
-      <c r="J50" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K50" s="12">
+        <v>6</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K50" s="11">
         <f t="shared" si="1"/>
-        <v>0.65042309762436568</v>
+        <v>0.71235462724935739</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3083,41 +3057,27 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="1">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1">
-        <v>6</v>
-      </c>
-      <c r="E51" s="1">
-        <v>20</v>
-      </c>
-      <c r="F51" s="5">
-        <f>E51/1123</f>
-        <v>1.7809439002671415E-2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>6</v>
-      </c>
-      <c r="H51" s="11">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
-      </c>
-      <c r="I51" s="1">
-        <v>5</v>
-      </c>
-      <c r="J51" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="1"/>
-        <v>0.65042309762436568</v>
-      </c>
+      <c r="A51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="11"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3126,7 +3086,7 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1">
         <v>7</v>
@@ -3138,25 +3098,26 @@
         <v>20</v>
       </c>
       <c r="F52" s="5">
-        <v>1.78E-2</v>
+        <f>E52/1123</f>
+        <v>1.7809439002671415E-2</v>
       </c>
       <c r="G52" s="1">
         <v>6</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <f t="shared" si="2"/>
         <v>1.8018018018018018E-2</v>
       </c>
       <c r="I52" s="1">
         <v>5</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="10">
         <f t="shared" si="0"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="11">
         <f t="shared" si="1"/>
-        <v>0.65007837338262475</v>
+        <v>0.65042309762436568</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3166,7 +3127,7 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>7</v>
@@ -3178,25 +3139,26 @@
         <v>20</v>
       </c>
       <c r="F53" s="5">
-        <v>1.78E-2</v>
+        <f>E53/1123</f>
+        <v>1.7809439002671415E-2</v>
       </c>
       <c r="G53" s="1">
         <v>6</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="10">
         <f t="shared" si="2"/>
         <v>1.8018018018018018E-2</v>
       </c>
       <c r="I53" s="1">
         <v>5</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="10">
         <f t="shared" si="0"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="11">
         <f t="shared" si="1"/>
-        <v>0.65007837338262475</v>
+        <v>0.65042309762436568</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3204,21 +3166,40 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1">
+        <v>20</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>5</v>
+      </c>
+      <c r="J54" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K54" s="11">
+        <f t="shared" si="1"/>
+        <v>0.65007837338262475</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3227,38 +3208,37 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1">
         <v>7</v>
       </c>
       <c r="D55" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" ref="F55:F61" si="3">19/1123</f>
-        <v>1.6918967052537846E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="G55" s="1">
-        <v>5</v>
-      </c>
-      <c r="H55" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>6</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="I55" s="1">
         <v>5</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="10">
         <f t="shared" si="0"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="11">
         <f t="shared" si="1"/>
-        <v>0.6940171993578742</v>
+        <v>0.65007837338262475</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3266,40 +3246,42 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="7" t="s">
-        <v>51</v>
+      <c r="A56" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C56" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6918967052537846E-2</v>
+        <f>18/1123</f>
+        <v>1.6028495102404273E-2</v>
       </c>
       <c r="G56" s="1">
-        <v>5</v>
-      </c>
-      <c r="H56" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>6</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="I56" s="1">
         <v>5</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="10">
         <f t="shared" si="0"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="11">
         <f t="shared" si="1"/>
-        <v>0.6940171993578742</v>
+        <v>0.58538078786192904</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3307,40 +3289,42 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="7" t="s">
-        <v>52</v>
+      <c r="A57" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C57" s="1">
         <v>7</v>
       </c>
       <c r="D57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6918967052537846E-2</v>
+        <f>20/1123</f>
+        <v>1.7809439002671415E-2</v>
       </c>
       <c r="G57" s="1">
-        <v>5</v>
-      </c>
-      <c r="H57" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>7</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
       </c>
       <c r="I57" s="1">
-        <v>5</v>
-      </c>
-      <c r="J57" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K57" s="12">
+        <v>7</v>
+      </c>
+      <c r="J57" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K57" s="11">
         <f t="shared" si="1"/>
-        <v>0.6940171993578742</v>
+        <v>0.52181744312622114</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3348,40 +3332,42 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="7" t="s">
-        <v>53</v>
+      <c r="A58" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C58" s="1">
         <v>7</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6918967052537846E-2</v>
+        <f>20/1123</f>
+        <v>1.7809439002671415E-2</v>
       </c>
       <c r="G58" s="1">
-        <v>5</v>
-      </c>
-      <c r="H58" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>7</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
       </c>
       <c r="I58" s="1">
-        <v>5</v>
-      </c>
-      <c r="J58" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K58" s="12">
+        <v>7</v>
+      </c>
+      <c r="J58" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K58" s="11">
         <f t="shared" si="1"/>
-        <v>0.6940171993578742</v>
+        <v>0.52181744312622114</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3389,41 +3375,21 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="1">
-        <v>7</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1">
-        <v>19</v>
-      </c>
-      <c r="F59" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6918967052537846E-2</v>
-      </c>
-      <c r="G59" s="1">
-        <v>5</v>
-      </c>
-      <c r="H59" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I59" s="1">
-        <v>5</v>
-      </c>
-      <c r="J59" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K59" s="12">
-        <f t="shared" si="1"/>
-        <v>0.6940171993578742</v>
-      </c>
+      <c r="A59" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="11"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3431,39 +3397,39 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="7" t="s">
-        <v>55</v>
+      <c r="B60" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C60" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
       </c>
       <c r="E60" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6918967052537846E-2</v>
+        <f>15/1123</f>
+        <v>1.3357079252003561E-2</v>
       </c>
       <c r="G60" s="1">
         <v>5</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <f t="shared" si="2"/>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I60" s="1">
-        <v>5</v>
-      </c>
-      <c r="J60" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K60" s="12">
+        <v>4</v>
+      </c>
+      <c r="J60" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4981273408239701E-2</v>
+      </c>
+      <c r="K60" s="11">
         <f t="shared" si="1"/>
-        <v>0.6940171993578742</v>
+        <v>0.59349888724382238</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3471,42 +3437,40 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>56</v>
+      <c r="A61" s="1"/>
+      <c r="B61" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C61" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
       </c>
       <c r="E61" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="3"/>
-        <v>1.6918967052537846E-2</v>
+        <f>17/1123</f>
+        <v>1.5138023152270703E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>5</v>
-      </c>
-      <c r="H61" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>6</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="I61" s="1">
-        <v>5</v>
-      </c>
-      <c r="J61" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K61" s="12">
+        <v>6</v>
+      </c>
+      <c r="J61" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K61" s="11">
         <f t="shared" si="1"/>
-        <v>0.6940171993578742</v>
+        <v>0.51746896443350265</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3515,62 +3479,59 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="11"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="12"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="11"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>31</v>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C63" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1">
-        <v>18</v>
-      </c>
-      <c r="F63" s="5">
-        <f>18/1123</f>
-        <v>1.6028495102404273E-2</v>
+        <v>14</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1.2E-2</v>
       </c>
       <c r="G63" s="1">
-        <v>6</v>
-      </c>
-      <c r="H63" s="11">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
+        <v>5</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I63" s="1">
         <v>5</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="10">
         <f t="shared" si="0"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="11">
         <f t="shared" si="1"/>
-        <v>0.58538078786192904</v>
+        <v>0.49224083044982697</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3578,42 +3539,39 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>57</v>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C64" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="1">
-        <v>20</v>
-      </c>
-      <c r="F64" s="5">
-        <f>20/1123</f>
-        <v>1.7809439002671415E-2</v>
+        <v>23</v>
+      </c>
+      <c r="F64" s="10">
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="G64" s="1">
-        <v>7</v>
-      </c>
-      <c r="H64" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
+        <v>8</v>
+      </c>
+      <c r="H64" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4024024024024024E-2</v>
       </c>
       <c r="I64" s="1">
-        <v>7</v>
-      </c>
-      <c r="J64" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K64" s="12">
+        <v>6</v>
+      </c>
+      <c r="J64" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K64" s="11">
         <f t="shared" si="1"/>
-        <v>0.52181744312622114</v>
+        <v>0.57855961722488047</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3621,42 +3579,39 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>58</v>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
       </c>
       <c r="D65" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1">
-        <v>20</v>
-      </c>
-      <c r="F65" s="5">
-        <f>20/1123</f>
-        <v>1.7809439002671415E-2</v>
+        <v>21</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>7</v>
-      </c>
-      <c r="H65" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
+        <v>5</v>
+      </c>
+      <c r="H65" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>7</v>
-      </c>
-      <c r="J65" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K65" s="12">
+        <v>6</v>
+      </c>
+      <c r="J65" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K65" s="11">
         <f t="shared" si="1"/>
-        <v>0.52181744312622114</v>
+        <v>0.70854524421593823</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3664,368 +3619,357 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1">
+        <v>21</v>
+      </c>
+      <c r="F66" s="10">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="H66" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>6</v>
+      </c>
+      <c r="J66" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K66" s="11">
+        <f t="shared" si="1"/>
+        <v>0.70854524421593823</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2" t="s">
-        <v>60</v>
+      <c r="B67" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C67" s="1">
         <v>5</v>
       </c>
       <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>14</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1.24E-2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2012012012012012E-2</v>
+      </c>
+      <c r="I67" s="1">
         <v>5</v>
       </c>
-      <c r="E67" s="1">
-        <v>15</v>
-      </c>
-      <c r="F67" s="5">
-        <f>15/1123</f>
-        <v>1.3357079252003561E-2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>5</v>
-      </c>
-      <c r="H67" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I67" s="1">
-        <v>4</v>
-      </c>
-      <c r="J67" s="11">
-        <f t="shared" si="0"/>
-        <v>1.4981273408239701E-2</v>
-      </c>
-      <c r="K67" s="12">
-        <f t="shared" si="1"/>
-        <v>0.59349888724382238</v>
-      </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="1">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1">
-        <v>5</v>
-      </c>
-      <c r="E68" s="1">
-        <v>17</v>
-      </c>
-      <c r="F68" s="5">
-        <f>17/1123</f>
-        <v>1.5138023152270703E-2</v>
-      </c>
-      <c r="G68" s="1">
-        <v>6</v>
-      </c>
-      <c r="H68" s="11">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
-      </c>
-      <c r="I68" s="1">
-        <v>6</v>
-      </c>
-      <c r="J68" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K68" s="12">
-        <f t="shared" si="1"/>
-        <v>0.51746896443350265</v>
-      </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="1">
-        <v>5</v>
-      </c>
-      <c r="D70" s="1">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1">
-        <v>14</v>
-      </c>
-      <c r="F70" s="11">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>5</v>
-      </c>
-      <c r="H70" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I70" s="1">
-        <v>5</v>
-      </c>
-      <c r="J70" s="11">
+      <c r="J67" s="10">
         <f t="shared" si="0"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K70" s="12">
-        <f t="shared" si="1"/>
-        <v>0.49224083044982697</v>
-      </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="1">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1">
-        <v>23</v>
-      </c>
-      <c r="F71" s="11">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="G71" s="1">
-        <v>8</v>
-      </c>
-      <c r="H71" s="11">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I71" s="1">
-        <v>6</v>
-      </c>
-      <c r="J71" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K71" s="12">
-        <f t="shared" si="1"/>
-        <v>0.57855961722488047</v>
-      </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="1">
-        <v>7</v>
-      </c>
-      <c r="D72" s="1">
-        <v>7</v>
-      </c>
-      <c r="E72" s="1">
-        <v>21</v>
-      </c>
-      <c r="F72" s="11">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="G72" s="1">
-        <v>5</v>
-      </c>
-      <c r="H72" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I72" s="1">
-        <v>6</v>
-      </c>
-      <c r="J72" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K72" s="12">
-        <f t="shared" si="1"/>
-        <v>0.70854524421593823</v>
-      </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="1">
-        <v>7</v>
-      </c>
-      <c r="D73" s="1">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1">
-        <v>21</v>
-      </c>
-      <c r="F73" s="11">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="G73" s="1">
-        <v>5</v>
-      </c>
-      <c r="H73" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I73" s="1">
-        <v>6</v>
-      </c>
-      <c r="J73" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K73" s="12">
-        <f t="shared" si="1"/>
-        <v>0.70854524421593823</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1">
-        <v>4</v>
-      </c>
-      <c r="E74" s="1">
-        <v>14</v>
-      </c>
-      <c r="F74" s="8">
-        <v>1.24E-2</v>
-      </c>
-      <c r="G74" s="1">
-        <v>4</v>
-      </c>
-      <c r="H74" s="11">
-        <f t="shared" si="2"/>
-        <v>1.2012012012012012E-2</v>
-      </c>
-      <c r="I74" s="1">
-        <v>5</v>
-      </c>
-      <c r="J74" s="11">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K74" s="12">
+      <c r="K67" s="11">
         <f t="shared" si="1"/>
         <v>0.58010860299921063</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="1">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="1">
         <v>4</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D68" s="1">
         <v>4</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E68" s="1">
         <v>12</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F68" s="7">
         <v>1.06E-2</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G68" s="1">
         <v>5</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H68" s="10">
         <f t="shared" si="2"/>
         <v>1.5015015015015015E-2</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I68" s="1">
         <v>5</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J68" s="10">
         <f t="shared" si="0"/>
         <v>1.8726591760299626E-2</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K68" s="11">
         <f t="shared" si="1"/>
         <v>0.43481273356401384</v>
       </c>
     </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3.6</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1">
+        <v>20</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>7</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>6</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K70" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1">
+        <v>20</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>7</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>6</v>
+      </c>
+      <c r="J71" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K71" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1">
+        <v>20</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>7</v>
+      </c>
+      <c r="H72" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>6</v>
+      </c>
+      <c r="J72" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K72" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1">
+        <v>20</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>7</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>7</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K74" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52154087988136422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4.2</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="1">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1">
+        <v>20</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>7</v>
+      </c>
+      <c r="H75" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I75" s="1">
+        <v>7</v>
+      </c>
+      <c r="J75" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K75" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52154087988136422</v>
+      </c>
+    </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1">
+        <v>20</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>7</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>7</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K76" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52154087988136422</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>69</v>
+      <c r="A77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C77" s="1">
         <v>7</v>
@@ -4036,509 +3980,276 @@
       <c r="E77" s="1">
         <v>20</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="7">
         <v>1.78E-2</v>
       </c>
       <c r="G77" s="1">
         <v>7</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="10">
         <f t="shared" si="2"/>
         <v>2.1021021021021023E-2</v>
       </c>
       <c r="I77" s="1">
-        <v>6</v>
-      </c>
-      <c r="J77" s="11">
+        <v>7</v>
+      </c>
+      <c r="J77" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K77" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52154087988136422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4.5</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1">
+        <v>20</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>7</v>
+      </c>
+      <c r="H78" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>6</v>
+      </c>
+      <c r="J78" s="10">
         <f t="shared" si="0"/>
         <v>2.247191011235955E-2</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K78" s="11">
         <f t="shared" si="1"/>
         <v>0.55181861924686193</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="1">
-        <v>7</v>
-      </c>
-      <c r="D78" s="1">
-        <v>6</v>
-      </c>
-      <c r="E78" s="1">
-        <v>20</v>
-      </c>
-      <c r="F78" s="8">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G78" s="1">
-        <v>7</v>
-      </c>
-      <c r="H78" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I78" s="1">
-        <v>6</v>
-      </c>
-      <c r="J78" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K78" s="12">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1">
+        <v>22</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>8</v>
+      </c>
+      <c r="H80" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>7</v>
+      </c>
+      <c r="J80" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K80" s="11">
         <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="1">
-        <v>7</v>
-      </c>
-      <c r="D79" s="1">
-        <v>6</v>
-      </c>
-      <c r="E79" s="1">
-        <v>20</v>
-      </c>
-      <c r="F79" s="8">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G79" s="1">
-        <v>7</v>
-      </c>
-      <c r="H79" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I79" s="1">
-        <v>6</v>
-      </c>
-      <c r="J79" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K79" s="12">
+        <v>0.52514447978191725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>22</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>8</v>
+      </c>
+      <c r="H81" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I81" s="1">
+        <v>7</v>
+      </c>
+      <c r="J81" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K81" s="11">
         <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>4</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="1">
-        <v>7</v>
-      </c>
-      <c r="D81" s="1">
-        <v>6</v>
-      </c>
-      <c r="E81" s="1">
-        <v>20</v>
-      </c>
-      <c r="F81" s="8">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G81" s="1">
-        <v>7</v>
-      </c>
-      <c r="H81" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I81" s="1">
-        <v>7</v>
-      </c>
-      <c r="J81" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K81" s="12">
-        <f t="shared" si="1"/>
-        <v>0.52154087988136422</v>
+        <v>0.52514447978191725</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="1">
-        <v>7</v>
-      </c>
-      <c r="D82" s="1">
-        <v>6</v>
-      </c>
-      <c r="E82" s="1">
-        <v>20</v>
-      </c>
-      <c r="F82" s="8">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G82" s="1">
-        <v>7</v>
-      </c>
-      <c r="H82" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I82" s="1">
-        <v>7</v>
-      </c>
-      <c r="J82" s="11">
-        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="1">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1">
+        <v>21</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>8</v>
+      </c>
+      <c r="H83" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I83" s="1">
+        <v>7</v>
+      </c>
+      <c r="J83" s="10">
+        <f t="shared" ref="J83:J85" si="3">I83/267</f>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K82" s="12">
-        <f t="shared" si="1"/>
-        <v>0.52154087988136422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>4.3</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="1">
-        <v>7</v>
-      </c>
-      <c r="D83" s="1">
-        <v>6</v>
-      </c>
-      <c r="E83" s="1">
-        <v>20</v>
-      </c>
-      <c r="F83" s="8">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G83" s="1">
-        <v>7</v>
-      </c>
-      <c r="H83" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I83" s="1">
-        <v>7</v>
-      </c>
-      <c r="J83" s="11">
-        <f t="shared" si="0"/>
+      <c r="K83" s="11">
+        <f t="shared" ref="K83:K85" si="4">F83/(H83+J83*0.5)</f>
+        <v>0.50090704225352101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="1">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>21</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>8</v>
+      </c>
+      <c r="H84" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>7</v>
+      </c>
+      <c r="J84" s="10">
+        <f t="shared" si="3"/>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K83" s="12">
-        <f t="shared" si="1"/>
-        <v>0.52154087988136422</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="1">
-        <v>7</v>
-      </c>
-      <c r="D84" s="1">
-        <v>6</v>
-      </c>
-      <c r="E84" s="1">
-        <v>20</v>
-      </c>
-      <c r="F84" s="8">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G84" s="1">
-        <v>7</v>
-      </c>
-      <c r="H84" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I84" s="1">
-        <v>7</v>
-      </c>
-      <c r="J84" s="11">
-        <f t="shared" si="0"/>
+      <c r="K84" s="11">
+        <f t="shared" si="4"/>
+        <v>0.50090704225352101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="1">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1">
+        <v>21</v>
+      </c>
+      <c r="F85" s="8">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>8</v>
+      </c>
+      <c r="H85" s="10">
+        <f t="shared" ref="H85" si="5">G85/333</f>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I85" s="1">
+        <v>7</v>
+      </c>
+      <c r="J85" s="10">
+        <f t="shared" si="3"/>
         <v>2.6217228464419477E-2</v>
       </c>
-      <c r="K84" s="12">
-        <f t="shared" si="1"/>
-        <v>0.52154087988136422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>4.5</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="1">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1">
-        <v>6</v>
-      </c>
-      <c r="E85" s="1">
-        <v>20</v>
-      </c>
-      <c r="F85" s="8">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G85" s="1">
-        <v>7</v>
-      </c>
-      <c r="H85" s="11">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I85" s="1">
-        <v>6</v>
-      </c>
-      <c r="J85" s="11">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K85" s="12">
-        <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
+      <c r="K85" s="11">
+        <f t="shared" si="4"/>
+        <v>0.50090704225352101</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="12"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="1">
-        <v>7</v>
-      </c>
-      <c r="D87" s="1">
-        <v>8</v>
-      </c>
-      <c r="E87" s="1">
-        <v>22</v>
-      </c>
-      <c r="F87" s="8">
-        <v>1.95E-2</v>
-      </c>
-      <c r="G87" s="1">
-        <v>8</v>
-      </c>
-      <c r="H87" s="11">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I87" s="1">
-        <v>7</v>
-      </c>
-      <c r="J87" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K87" s="12">
-        <f t="shared" si="1"/>
-        <v>0.52514447978191725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" s="1">
-        <v>7</v>
-      </c>
-      <c r="D88" s="1">
-        <v>8</v>
-      </c>
-      <c r="E88" s="1">
-        <v>22</v>
-      </c>
-      <c r="F88" s="8">
-        <v>1.95E-2</v>
-      </c>
-      <c r="G88" s="1">
-        <v>8</v>
-      </c>
-      <c r="H88" s="11">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I88" s="1">
-        <v>7</v>
-      </c>
-      <c r="J88" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K88" s="12">
-        <f t="shared" si="1"/>
-        <v>0.52514447978191725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>5</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="12"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="1">
-        <v>7</v>
-      </c>
-      <c r="D90" s="1">
-        <v>7</v>
-      </c>
-      <c r="E90" s="1">
-        <v>21</v>
-      </c>
-      <c r="F90" s="8">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="G90" s="1">
-        <v>8</v>
-      </c>
-      <c r="H90" s="11">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I90" s="1">
-        <v>7</v>
-      </c>
-      <c r="J90" s="11">
-        <f t="shared" ref="J90:J92" si="4">I90/267</f>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K90" s="12">
-        <f t="shared" ref="K90:K92" si="5">F90/(H90+J90*0.5)</f>
-        <v>0.50090704225352101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="1">
-        <v>7</v>
-      </c>
-      <c r="D91" s="1">
-        <v>7</v>
-      </c>
-      <c r="E91" s="1">
-        <v>21</v>
-      </c>
-      <c r="F91" s="8">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="G91" s="1">
-        <v>8</v>
-      </c>
-      <c r="H91" s="11">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I91" s="1">
-        <v>7</v>
-      </c>
-      <c r="J91" s="11">
-        <f t="shared" si="4"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K91" s="12">
-        <f t="shared" si="5"/>
-        <v>0.50090704225352101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="1">
-        <v>7</v>
-      </c>
-      <c r="D92" s="1">
-        <v>7</v>
-      </c>
-      <c r="E92" s="1">
-        <v>21</v>
-      </c>
-      <c r="F92" s="9">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="G92" s="1">
-        <v>8</v>
-      </c>
-      <c r="H92" s="11">
-        <f t="shared" ref="H92" si="6">G92/333</f>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I92" s="1">
-        <v>7</v>
-      </c>
-      <c r="J92" s="11">
-        <f t="shared" si="4"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K92" s="12">
-        <f t="shared" si="5"/>
-        <v>0.50090704225352101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E93">
-        <f>SUM(E23:E92)</f>
-        <v>1123</v>
-      </c>
-      <c r="F93" s="10"/>
-      <c r="G93">
-        <f>SUM(G24:G92)</f>
-        <v>333</v>
-      </c>
-      <c r="I93">
-        <f>SUM(I24:I92)</f>
-        <v>267</v>
+      <c r="E86">
+        <f>SUM(E23:E85)</f>
+        <v>1042</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86">
+        <f>SUM(G24:G85)</f>
+        <v>308</v>
+      </c>
+      <c r="I86">
+        <f>SUM(I24:I85)</f>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA7EDAB-9216-43E0-933D-311CC53B11F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C353B6-7FD6-4141-A137-E8A97D18ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="3150" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  我的作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    上传作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,6 +330,10 @@
   </si>
   <si>
     <t>帖子标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  作业讨论区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
@@ -2384,7 +2384,7 @@
         <v>1.6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
         <v>9</v>
@@ -2427,7 +2427,7 @@
         <v>1.7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1">
         <v>8</v>
@@ -3061,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3086,7 +3086,7 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1">
         <v>7</v>
@@ -3127,7 +3127,7 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1">
         <v>7</v>
@@ -3168,7 +3168,7 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1">
         <v>7</v>
@@ -3208,7 +3208,7 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1">
         <v>7</v>
@@ -3293,7 +3293,7 @@
         <v>3.2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1">
         <v>7</v>
@@ -3336,7 +3336,7 @@
         <v>3.3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1">
         <v>7</v>
@@ -3379,7 +3379,7 @@
         <v>3.4</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3398,7 +3398,7 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
         <v>5</v>
@@ -3439,7 +3439,7 @@
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -3482,7 +3482,7 @@
         <v>3.5</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3501,7 +3501,7 @@
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1">
         <v>5</v>
@@ -3541,7 +3541,7 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="1">
         <v>8</v>
@@ -3581,7 +3581,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1">
         <v>5</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
@@ -3728,7 +3728,7 @@
         <v>3.6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H69" s="10"/>
       <c r="J69" s="10"/>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="1">
         <v>7</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="1">
         <v>7</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="1">
         <v>7</v>
@@ -3844,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H73" s="10"/>
       <c r="J73" s="10"/>
@@ -3855,7 +3855,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="1">
         <v>7</v>
@@ -3893,7 +3893,7 @@
         <v>4.2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="1">
         <v>7</v>
@@ -3931,7 +3931,7 @@
         <v>4.3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="1">
         <v>7</v>
@@ -3969,7 +3969,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="1">
         <v>7</v>
@@ -4007,7 +4007,7 @@
         <v>4.5</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="1">
         <v>6</v>
@@ -4045,7 +4045,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H79" s="10"/>
       <c r="J79" s="10"/>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1">
         <v>7</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="1">
         <v>7</v>
@@ -4126,7 +4126,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H82" s="10"/>
       <c r="J82" s="10"/>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1">
         <v>7</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" s="1">
         <v>7</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="1">
         <v>7</v>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C353B6-7FD6-4141-A137-E8A97D18ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358FB928-7D9F-43FF-BACD-4AD00C199E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>相对权重</t>
   </si>
@@ -334,6 +334,10 @@
   </si>
   <si>
     <t xml:space="preserve">  作业讨论区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1589,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2049,14 +2053,14 @@
         <v>27</v>
       </c>
       <c r="F24" s="5">
-        <f>E24/E86</f>
+        <f>E24/E87</f>
         <v>2.5911708253358926E-2</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
       </c>
       <c r="H24" s="5">
-        <f>G24/G86</f>
+        <f>G24/G87</f>
         <v>1.6233766233766232E-2</v>
       </c>
       <c r="I24" s="1">
@@ -2117,18 +2121,18 @@
         <v>5</v>
       </c>
       <c r="H26" s="5">
-        <f>G26/G86</f>
+        <f>G26/G87</f>
         <v>1.6233766233766232E-2</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" ref="J26:J81" si="0">I26/267</f>
+        <f t="shared" ref="J26:J82" si="0">I26/267</f>
         <v>7.4906367041198503E-3</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" ref="K26:K81" si="1">F26/(H26+J26*0.5)</f>
+        <f t="shared" ref="K26:K82" si="1">F26/(H26+J26*0.5)</f>
         <v>1.1011515520389532</v>
       </c>
       <c r="L26" s="1"/>
@@ -2197,7 +2201,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H84" si="2">G28/333</f>
+        <f t="shared" ref="H28:H85" si="2">G28/333</f>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I28" s="1">
@@ -2396,7 +2400,7 @@
         <v>27</v>
       </c>
       <c r="F33" s="10">
-        <f>E33/E86</f>
+        <f>E33/E87</f>
         <v>2.5911708253358926E-2</v>
       </c>
       <c r="G33" s="1">
@@ -2439,7 +2443,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="10">
-        <f>E34/E86</f>
+        <f>E34/E87</f>
         <v>2.3992322456813819E-2</v>
       </c>
       <c r="G34" s="1">
@@ -2887,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="5">
-        <f>E46/E86</f>
+        <f>E46/E87</f>
         <v>1.7274472168905951E-2</v>
       </c>
       <c r="G46" s="1">
@@ -3247,42 +3251,20 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="1">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1">
-        <v>6</v>
-      </c>
-      <c r="E56" s="1">
-        <v>18</v>
-      </c>
-      <c r="F56" s="5">
-        <f>18/1123</f>
-        <v>1.6028495102404273E-2</v>
-      </c>
-      <c r="G56" s="1">
-        <v>6</v>
-      </c>
-      <c r="H56" s="10">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
-      </c>
-      <c r="I56" s="1">
-        <v>5</v>
-      </c>
-      <c r="J56" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K56" s="11">
-        <f t="shared" si="1"/>
-        <v>0.58538078786192904</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="11"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3290,41 +3272,41 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C57" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="1">
         <v>6</v>
       </c>
       <c r="E57" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F57" s="5">
-        <f>20/1123</f>
-        <v>1.7809439002671415E-2</v>
+        <f>18/1123</f>
+        <v>1.6028495102404273E-2</v>
       </c>
       <c r="G57" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="I57" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J57" s="10">
         <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K57" s="11">
         <f t="shared" si="1"/>
-        <v>0.52181744312622114</v>
+        <v>0.58538078786192904</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3333,10 +3315,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1">
         <v>7</v>
@@ -3376,61 +3358,63 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1">
+        <v>20</v>
+      </c>
+      <c r="F59" s="5">
+        <f>20/1123</f>
+        <v>1.7809439002671415E-2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>7</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>7</v>
+      </c>
+      <c r="J59" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52181744312622114</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>15</v>
-      </c>
-      <c r="F60" s="5">
-        <f>15/1123</f>
-        <v>1.3357079252003561E-2</v>
-      </c>
-      <c r="G60" s="1">
-        <v>5</v>
-      </c>
-      <c r="H60" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I60" s="1">
-        <v>4</v>
-      </c>
-      <c r="J60" s="10">
-        <f t="shared" si="0"/>
-        <v>1.4981273408239701E-2</v>
-      </c>
-      <c r="K60" s="11">
-        <f t="shared" si="1"/>
-        <v>0.59349888724382238</v>
-      </c>
+      <c r="A60" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="11"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -3439,38 +3423,38 @@
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
       </c>
       <c r="E61" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F61" s="5">
-        <f>17/1123</f>
-        <v>1.5138023152270703E-2</v>
+        <f>15/1123</f>
+        <v>1.3357079252003561E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I61" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J61" s="10">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.4981273408239701E-2</v>
       </c>
       <c r="K61" s="11">
         <f t="shared" si="1"/>
-        <v>0.51746896443350265</v>
+        <v>0.59349888724382238</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3478,61 +3462,62 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="11"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>17</v>
+      </c>
+      <c r="F62" s="5">
+        <f>17/1123</f>
+        <v>1.5138023152270703E-2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>6</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>6</v>
+      </c>
+      <c r="J62" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K62" s="11">
+        <f t="shared" si="1"/>
+        <v>0.51746896443350265</v>
+      </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="1">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1">
-        <v>14</v>
-      </c>
-      <c r="F63" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G63" s="1">
-        <v>5</v>
-      </c>
-      <c r="H63" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I63" s="1">
-        <v>5</v>
-      </c>
-      <c r="J63" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K63" s="11">
-        <f t="shared" si="1"/>
-        <v>0.49224083044982697</v>
-      </c>
+      <c r="A63" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="11"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3541,37 +3526,37 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E64" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F64" s="10">
-        <v>2.0400000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G64" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I64" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" s="10">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K64" s="11">
         <f t="shared" si="1"/>
-        <v>0.57855961722488047</v>
+        <v>0.49224083044982697</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3581,26 +3566,26 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C65" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1">
         <v>7</v>
       </c>
       <c r="E65" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F65" s="10">
-        <v>1.8599999999999998E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>2.4024024024024024E-2</v>
       </c>
       <c r="I65" s="1">
         <v>6</v>
@@ -3611,7 +3596,7 @@
       </c>
       <c r="K65" s="11">
         <f t="shared" si="1"/>
-        <v>0.70854524421593823</v>
+        <v>0.57855961722488047</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3619,8 +3604,9 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
@@ -3652,64 +3638,68 @@
         <f t="shared" si="1"/>
         <v>0.70854524421593823</v>
       </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="1">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1">
+        <v>21</v>
+      </c>
+      <c r="F67" s="10">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G67" s="1">
         <v>5</v>
       </c>
-      <c r="D67" s="1">
-        <v>4</v>
-      </c>
-      <c r="E67" s="1">
-        <v>14</v>
-      </c>
-      <c r="F67" s="7">
-        <v>1.24E-2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>4</v>
-      </c>
       <c r="H67" s="10">
         <f t="shared" si="2"/>
-        <v>1.2012012012012012E-2</v>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I67" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J67" s="10">
         <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="K67" s="11">
         <f t="shared" si="1"/>
-        <v>0.58010860299921063</v>
+        <v>0.70854524421593823</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" s="1">
         <v>4</v>
       </c>
       <c r="E68" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" s="7">
-        <v>1.06E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H68" s="10">
         <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>1.2012012012012012E-2</v>
       </c>
       <c r="I68" s="1">
         <v>5</v>
@@ -3720,58 +3710,58 @@
       </c>
       <c r="K68" s="11">
         <f t="shared" si="1"/>
+        <v>0.58010860299921063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>12</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1.06E-2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>5</v>
+      </c>
+      <c r="H69" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="I69" s="1">
+        <v>5</v>
+      </c>
+      <c r="J69" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K69" s="11">
+        <f t="shared" si="1"/>
         <v>0.43481273356401384</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>3.6</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="1">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1">
-        <v>6</v>
-      </c>
-      <c r="E70" s="1">
-        <v>20</v>
-      </c>
-      <c r="F70" s="7">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>7</v>
-      </c>
-      <c r="H70" s="10">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I70" s="1">
-        <v>6</v>
-      </c>
-      <c r="J70" s="10">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K70" s="11">
-        <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
-      </c>
+      <c r="H70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="1">
         <v>7</v>
@@ -3806,7 +3796,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C72" s="1">
         <v>7</v>
@@ -3840,60 +3830,57 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>4</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="11"/>
+      <c r="B73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="1">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1">
+        <v>20</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>7</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>6</v>
+      </c>
+      <c r="J73" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K73" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="1">
-        <v>7</v>
-      </c>
-      <c r="D74" s="1">
-        <v>6</v>
-      </c>
-      <c r="E74" s="1">
-        <v>20</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G74" s="1">
-        <v>7</v>
-      </c>
-      <c r="H74" s="10">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I74" s="1">
-        <v>7</v>
-      </c>
-      <c r="J74" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K74" s="11">
-        <f t="shared" si="1"/>
-        <v>0.52154087988136422</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="11"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="1">
         <v>7</v>
@@ -3928,10 +3915,10 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="1">
         <v>7</v>
@@ -3966,10 +3953,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="1">
         <v>7</v>
@@ -4004,13 +3991,13 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1">
         <v>6</v>
@@ -4029,66 +4016,69 @@
         <v>2.1021021021021023E-2</v>
       </c>
       <c r="I78" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J78" s="10">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K78" s="11">
         <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
+        <v>0.52154087988136422</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
+        <v>4.5</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1">
+        <v>20</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>7</v>
+      </c>
+      <c r="H79" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I79" s="1">
+        <v>6</v>
+      </c>
+      <c r="J79" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K79" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="1">
-        <v>7</v>
-      </c>
-      <c r="D80" s="1">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1">
-        <v>22</v>
-      </c>
-      <c r="F80" s="7">
-        <v>1.95E-2</v>
-      </c>
-      <c r="G80" s="1">
-        <v>8</v>
-      </c>
-      <c r="H80" s="10">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I80" s="1">
-        <v>7</v>
-      </c>
-      <c r="J80" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K80" s="11">
-        <f t="shared" si="1"/>
-        <v>0.52514447978191725</v>
-      </c>
+      <c r="H80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="11"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="1">
         <v>7</v>
@@ -4122,54 +4112,54 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="B82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1">
+        <v>22</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>8</v>
+      </c>
+      <c r="H82" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I82" s="1">
+        <v>7</v>
+      </c>
+      <c r="J82" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K82" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52514447978191725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>5</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="11"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="1">
-        <v>7</v>
-      </c>
-      <c r="D83" s="1">
-        <v>7</v>
-      </c>
-      <c r="E83" s="1">
-        <v>21</v>
-      </c>
-      <c r="F83" s="7">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="G83" s="1">
-        <v>8</v>
-      </c>
-      <c r="H83" s="10">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I83" s="1">
-        <v>7</v>
-      </c>
-      <c r="J83" s="10">
-        <f t="shared" ref="J83:J85" si="3">I83/267</f>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K83" s="11">
-        <f t="shared" ref="K83:K85" si="4">F83/(H83+J83*0.5)</f>
-        <v>0.50090704225352101</v>
-      </c>
+      <c r="H83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1">
         <v>7</v>
@@ -4194,17 +4184,17 @@
         <v>7</v>
       </c>
       <c r="J84" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J84:J86" si="3">I84/267</f>
         <v>2.6217228464419477E-2</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K84:K86" si="4">F84/(H84+J84*0.5)</f>
         <v>0.50090704225352101</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="1">
         <v>7</v>
@@ -4215,14 +4205,14 @@
       <c r="E85" s="1">
         <v>21</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="7">
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="G85" s="1">
         <v>8</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" ref="H85" si="5">G85/333</f>
+        <f t="shared" si="2"/>
         <v>2.4024024024024024E-2</v>
       </c>
       <c r="I85" s="1">
@@ -4238,17 +4228,52 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E86">
-        <f>SUM(E23:E85)</f>
+      <c r="B86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1">
+        <v>7</v>
+      </c>
+      <c r="E86" s="1">
+        <v>21</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G86" s="1">
+        <v>8</v>
+      </c>
+      <c r="H86" s="10">
+        <f t="shared" ref="H86" si="5">G86/333</f>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I86" s="1">
+        <v>7</v>
+      </c>
+      <c r="J86" s="10">
+        <f t="shared" si="3"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K86" s="11">
+        <f t="shared" si="4"/>
+        <v>0.50090704225352101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <f>SUM(E23:E86)</f>
         <v>1042</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86">
-        <f>SUM(G24:G85)</f>
+      <c r="F87" s="9"/>
+      <c r="G87">
+        <f>SUM(G24:G86)</f>
         <v>308</v>
       </c>
-      <c r="I86">
-        <f>SUM(I24:I85)</f>
+      <c r="I87">
+        <f>SUM(I24:I86)</f>
         <v>236</v>
       </c>
     </row>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358FB928-7D9F-43FF-BACD-4AD00C199E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F6500E-1466-40C6-AA6C-B0F8B99E9C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>相对权重</t>
   </si>
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    新建群聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1593,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1668,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1">
         <f>SUM((C:C)*2,(D:D))</f>
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2053,15 +2057,15 @@
         <v>27</v>
       </c>
       <c r="F24" s="5">
-        <f>E24/E87</f>
-        <v>2.5911708253358926E-2</v>
+        <f>E24/E88</f>
+        <v>2.5471698113207548E-2</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
       </c>
       <c r="H24" s="5">
-        <f>G24/G87</f>
-        <v>1.6233766233766232E-2</v>
+        <f>G24/G88</f>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -2072,7 +2076,7 @@
       </c>
       <c r="K24" s="11">
         <f>F24/(H24+J24*0.5)</f>
-        <v>1.2969417163257608</v>
+        <v>1.2983619210977704</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="2"/>
@@ -2121,19 +2125,19 @@
         <v>5</v>
       </c>
       <c r="H26" s="5">
-        <f>G26/G87</f>
-        <v>1.6233766233766232E-2</v>
+        <f>G26/G88</f>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="I26" s="1">
         <v>2</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" ref="J26:J82" si="0">I26/267</f>
+        <f t="shared" ref="J26:J83" si="0">I26/267</f>
         <v>7.4906367041198503E-3</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" ref="K26:K82" si="1">F26/(H26+J26*0.5)</f>
-        <v>1.1011515520389532</v>
+        <f t="shared" ref="K26:K83" si="1">F26/(H26+J26*0.5)</f>
+        <v>1.1214</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2"/>
@@ -2201,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" ref="H28:H85" si="2">G28/333</f>
+        <f t="shared" ref="H28:H86" si="2">G28/333</f>
         <v>1.5015015015015015E-2</v>
       </c>
       <c r="I28" s="1">
@@ -2400,8 +2404,8 @@
         <v>27</v>
       </c>
       <c r="F33" s="10">
-        <f>E33/E87</f>
-        <v>2.5911708253358926E-2</v>
+        <f>E33/E88</f>
+        <v>2.5471698113207548E-2</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
@@ -2419,7 +2423,7 @@
       </c>
       <c r="K33" s="11">
         <f>F33/(H33*1+J33*0.5)</f>
-        <v>1.3811965782460405</v>
+        <v>1.3577422967286548</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2443,8 +2447,8 @@
         <v>25</v>
       </c>
       <c r="F34" s="10">
-        <f>E34/E87</f>
-        <v>2.3992322456813819E-2</v>
+        <f>E34/E88</f>
+        <v>2.358490566037736E-2</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
@@ -2462,7 +2466,7 @@
       </c>
       <c r="K34" s="11">
         <f>F34/(H34*1+J34*0.5)</f>
-        <v>1.2788857205981856</v>
+        <v>1.257168793267273</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2891,8 +2895,8 @@
         <v>18</v>
       </c>
       <c r="F46" s="5">
-        <f>E46/E87</f>
-        <v>1.7274472168905951E-2</v>
+        <f>E46/E88</f>
+        <v>1.6981132075471698E-2</v>
       </c>
       <c r="G46" s="1">
         <v>7</v>
@@ -2910,7 +2914,7 @@
       </c>
       <c r="K46" s="11">
         <f t="shared" si="1"/>
-        <v>0.64846552459767659</v>
+        <v>0.63745384587809328</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="2"/>
@@ -2959,62 +2963,62 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="11"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>18</v>
+      </c>
+      <c r="F48" s="10">
+        <f>E48/1060</f>
+        <v>1.6981132075471698E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>7</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1235955056179775E-2</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="1"/>
+        <v>0.63745384587809328</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="2"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="1">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1">
-        <v>21</v>
-      </c>
-      <c r="F49" s="5">
-        <f>E49/1123</f>
-        <v>1.8699910952804988E-2</v>
-      </c>
-      <c r="G49" s="1">
-        <v>5</v>
-      </c>
-      <c r="H49" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I49" s="1">
-        <v>6</v>
-      </c>
-      <c r="J49" s="10">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K49" s="11">
-        <f t="shared" si="1"/>
-        <v>0.71235123510061871</v>
-      </c>
+      <c r="A49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="1"/>
       <c r="M49" s="2"/>
       <c r="N49" s="1"/>
@@ -3022,8 +3026,8 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>40</v>
+      <c r="B50" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C50" s="1">
         <v>7</v>
@@ -3035,7 +3039,8 @@
         <v>21</v>
       </c>
       <c r="F50" s="5">
-        <v>1.8700000000000001E-2</v>
+        <f>E50/1123</f>
+        <v>1.8699910952804988E-2</v>
       </c>
       <c r="G50" s="1">
         <v>5</v>
@@ -3053,76 +3058,75 @@
       </c>
       <c r="K50" s="11">
         <f t="shared" si="1"/>
-        <v>0.71235462724935739</v>
+        <v>0.71235123510061871</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="1"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>21</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
       <c r="H51" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="1"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>6</v>
+      </c>
       <c r="J51" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="11"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="1"/>
+        <v>0.71235462724935739</v>
+      </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="1">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1">
-        <v>6</v>
-      </c>
-      <c r="E52" s="1">
-        <v>20</v>
-      </c>
-      <c r="F52" s="5">
-        <f>E52/1123</f>
-        <v>1.7809439002671415E-2</v>
-      </c>
-      <c r="G52" s="1">
-        <v>6</v>
-      </c>
+      <c r="A52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="10">
         <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
-      </c>
-      <c r="I52" s="1">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" s="1"/>
       <c r="J52" s="10">
         <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K52" s="11">
-        <f t="shared" si="1"/>
-        <v>0.65042309762436568</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52" s="11"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3131,7 +3135,7 @@
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1">
         <v>7</v>
@@ -3172,7 +3176,7 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1">
         <v>7</v>
@@ -3184,7 +3188,8 @@
         <v>20</v>
       </c>
       <c r="F54" s="5">
-        <v>1.78E-2</v>
+        <f>E54/1123</f>
+        <v>1.7809439002671415E-2</v>
       </c>
       <c r="G54" s="1">
         <v>6</v>
@@ -3202,7 +3207,7 @@
       </c>
       <c r="K54" s="11">
         <f t="shared" si="1"/>
-        <v>0.65007837338262475</v>
+        <v>0.65042309762436568</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3212,7 +3217,7 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="1">
         <v>7</v>
@@ -3250,21 +3255,40 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>3</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="11"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="1">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>20</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5</v>
+      </c>
+      <c r="J56" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="1"/>
+        <v>0.65007837338262475</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3272,42 +3296,20 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="1">
-        <v>6</v>
-      </c>
-      <c r="D57" s="1">
-        <v>6</v>
-      </c>
-      <c r="E57" s="1">
-        <v>18</v>
-      </c>
-      <c r="F57" s="5">
-        <f>18/1123</f>
-        <v>1.6028495102404273E-2</v>
-      </c>
-      <c r="G57" s="1">
-        <v>6</v>
-      </c>
-      <c r="H57" s="10">
-        <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
-      </c>
-      <c r="I57" s="1">
-        <v>5</v>
-      </c>
-      <c r="J57" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K57" s="11">
-        <f t="shared" si="1"/>
-        <v>0.58538078786192904</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="11"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3315,41 +3317,41 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C58" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1">
         <v>6</v>
       </c>
       <c r="E58" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F58" s="5">
-        <f>20/1123</f>
-        <v>1.7809439002671415E-2</v>
+        <f>18/1123</f>
+        <v>1.6028495102404273E-2</v>
       </c>
       <c r="G58" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="I58" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J58" s="10">
         <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K58" s="11">
         <f t="shared" si="1"/>
-        <v>0.52181744312622114</v>
+        <v>0.58538078786192904</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3358,10 +3360,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1">
         <v>7</v>
@@ -3401,61 +3403,63 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>20</v>
+      </c>
+      <c r="F60" s="5">
+        <f>20/1123</f>
+        <v>1.7809439002671415E-2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>7</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I60" s="1">
+        <v>7</v>
+      </c>
+      <c r="J60" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K60" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52181744312622114</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="1">
-        <v>5</v>
-      </c>
-      <c r="D61" s="1">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>15</v>
-      </c>
-      <c r="F61" s="5">
-        <f>15/1123</f>
-        <v>1.3357079252003561E-2</v>
-      </c>
-      <c r="G61" s="1">
-        <v>5</v>
-      </c>
-      <c r="H61" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I61" s="1">
-        <v>4</v>
-      </c>
-      <c r="J61" s="10">
-        <f t="shared" si="0"/>
-        <v>1.4981273408239701E-2</v>
-      </c>
-      <c r="K61" s="11">
-        <f t="shared" si="1"/>
-        <v>0.59349888724382238</v>
-      </c>
+      <c r="A61" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="11"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -3464,38 +3468,38 @@
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
       </c>
       <c r="E62" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F62" s="5">
-        <f>17/1123</f>
-        <v>1.5138023152270703E-2</v>
+        <f>15/1123</f>
+        <v>1.3357079252003561E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" si="2"/>
-        <v>1.8018018018018018E-2</v>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I62" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J62" s="10">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.4981273408239701E-2</v>
       </c>
       <c r="K62" s="11">
         <f t="shared" si="1"/>
-        <v>0.51746896443350265</v>
+        <v>0.59349888724382238</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3503,61 +3507,62 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="11"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="1">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5">
+        <f>17/1123</f>
+        <v>1.5138023152270703E-2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>6</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8018018018018018E-2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>6</v>
+      </c>
+      <c r="J63" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K63" s="11">
+        <f t="shared" si="1"/>
+        <v>0.51746896443350265</v>
+      </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="1">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>4</v>
-      </c>
-      <c r="E64" s="1">
-        <v>14</v>
-      </c>
-      <c r="F64" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G64" s="1">
-        <v>5</v>
-      </c>
-      <c r="H64" s="10">
-        <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
-      </c>
-      <c r="I64" s="1">
-        <v>5</v>
-      </c>
-      <c r="J64" s="10">
-        <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
-      </c>
-      <c r="K64" s="11">
-        <f t="shared" si="1"/>
-        <v>0.49224083044982697</v>
-      </c>
+      <c r="A64" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -3566,37 +3571,37 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C65" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E65" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F65" s="10">
-        <v>2.0400000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" s="10">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
+        <v>1.8726591760299626E-2</v>
       </c>
       <c r="K65" s="11">
         <f t="shared" si="1"/>
-        <v>0.57855961722488047</v>
+        <v>0.49224083044982697</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3606,26 +3611,26 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1">
         <v>7</v>
       </c>
       <c r="E66" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F66" s="10">
-        <v>1.8599999999999998E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H66" s="10">
         <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>2.4024024024024024E-2</v>
       </c>
       <c r="I66" s="1">
         <v>6</v>
@@ -3636,7 +3641,7 @@
       </c>
       <c r="K66" s="11">
         <f t="shared" si="1"/>
-        <v>0.70854524421593823</v>
+        <v>0.57855961722488047</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3644,8 +3649,9 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1">
         <v>7</v>
@@ -3677,64 +3683,68 @@
         <f t="shared" si="1"/>
         <v>0.70854524421593823</v>
       </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="1">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
+        <v>21</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G68" s="1">
         <v>5</v>
       </c>
-      <c r="D68" s="1">
-        <v>4</v>
-      </c>
-      <c r="E68" s="1">
-        <v>14</v>
-      </c>
-      <c r="F68" s="7">
-        <v>1.24E-2</v>
-      </c>
-      <c r="G68" s="1">
-        <v>4</v>
-      </c>
       <c r="H68" s="10">
         <f t="shared" si="2"/>
-        <v>1.2012012012012012E-2</v>
+        <v>1.5015015015015015E-2</v>
       </c>
       <c r="I68" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J68" s="10">
         <f t="shared" si="0"/>
-        <v>1.8726591760299626E-2</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="K68" s="11">
         <f t="shared" si="1"/>
-        <v>0.58010860299921063</v>
+        <v>0.70854524421593823</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1">
         <v>4</v>
       </c>
       <c r="E69" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" s="7">
-        <v>1.06E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="G69" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H69" s="10">
         <f t="shared" si="2"/>
-        <v>1.5015015015015015E-2</v>
+        <v>1.2012012012012012E-2</v>
       </c>
       <c r="I69" s="1">
         <v>5</v>
@@ -3745,58 +3755,58 @@
       </c>
       <c r="K69" s="11">
         <f t="shared" si="1"/>
+        <v>0.58010860299921063</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
+        <v>12</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1.06E-2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>5</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5015015015015015E-2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>5</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8726591760299626E-2</v>
+      </c>
+      <c r="K70" s="11">
+        <f t="shared" si="1"/>
         <v>0.43481273356401384</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>3.6</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="1">
-        <v>7</v>
-      </c>
-      <c r="D71" s="1">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1">
-        <v>20</v>
-      </c>
-      <c r="F71" s="7">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G71" s="1">
-        <v>7</v>
-      </c>
-      <c r="H71" s="10">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I71" s="1">
-        <v>6</v>
-      </c>
-      <c r="J71" s="10">
-        <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="K71" s="11">
-        <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
-      </c>
+      <c r="H71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1">
         <v>7</v>
@@ -3831,7 +3841,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="1">
         <v>7</v>
@@ -3865,60 +3875,57 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="11"/>
+      <c r="B74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1">
+        <v>20</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>7</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>6</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K74" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="1">
-        <v>7</v>
-      </c>
-      <c r="D75" s="1">
-        <v>6</v>
-      </c>
-      <c r="E75" s="1">
-        <v>20</v>
-      </c>
-      <c r="F75" s="7">
-        <v>1.78E-2</v>
-      </c>
-      <c r="G75" s="1">
-        <v>7</v>
-      </c>
-      <c r="H75" s="10">
-        <f t="shared" si="2"/>
-        <v>2.1021021021021023E-2</v>
-      </c>
-      <c r="I75" s="1">
-        <v>7</v>
-      </c>
-      <c r="J75" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K75" s="11">
-        <f t="shared" si="1"/>
-        <v>0.52154087988136422</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="11"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="1">
         <v>7</v>
@@ -3953,10 +3960,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="1">
         <v>7</v>
@@ -3991,10 +3998,10 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="1">
         <v>7</v>
@@ -4029,13 +4036,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1">
         <v>6</v>
@@ -4054,66 +4061,69 @@
         <v>2.1021021021021023E-2</v>
       </c>
       <c r="I79" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J79" s="10">
         <f t="shared" si="0"/>
-        <v>2.247191011235955E-2</v>
+        <v>2.6217228464419477E-2</v>
       </c>
       <c r="K79" s="11">
         <f t="shared" si="1"/>
-        <v>0.55181861924686193</v>
+        <v>0.52154087988136422</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
+        <v>4.5</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1">
+        <v>20</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>7</v>
+      </c>
+      <c r="H80" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1021021021021023E-2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>6</v>
+      </c>
+      <c r="J80" s="10">
+        <f t="shared" si="0"/>
+        <v>2.247191011235955E-2</v>
+      </c>
+      <c r="K80" s="11">
+        <f t="shared" si="1"/>
+        <v>0.55181861924686193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="11"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="1">
-        <v>7</v>
-      </c>
-      <c r="D81" s="1">
-        <v>8</v>
-      </c>
-      <c r="E81" s="1">
-        <v>22</v>
-      </c>
-      <c r="F81" s="7">
-        <v>1.95E-2</v>
-      </c>
-      <c r="G81" s="1">
-        <v>8</v>
-      </c>
-      <c r="H81" s="10">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I81" s="1">
-        <v>7</v>
-      </c>
-      <c r="J81" s="10">
-        <f t="shared" si="0"/>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K81" s="11">
-        <f t="shared" si="1"/>
-        <v>0.52514447978191725</v>
-      </c>
+      <c r="H81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="11"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="1">
         <v>7</v>
@@ -4147,54 +4157,54 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="B83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="1">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1">
+        <v>22</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>8</v>
+      </c>
+      <c r="H83" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I83" s="1">
+        <v>7</v>
+      </c>
+      <c r="J83" s="10">
+        <f t="shared" si="0"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K83" s="11">
+        <f t="shared" si="1"/>
+        <v>0.52514447978191725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>5</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="11"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="1">
-        <v>7</v>
-      </c>
-      <c r="D84" s="1">
-        <v>7</v>
-      </c>
-      <c r="E84" s="1">
-        <v>21</v>
-      </c>
-      <c r="F84" s="7">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="G84" s="1">
-        <v>8</v>
-      </c>
-      <c r="H84" s="10">
-        <f t="shared" si="2"/>
-        <v>2.4024024024024024E-2</v>
-      </c>
-      <c r="I84" s="1">
-        <v>7</v>
-      </c>
-      <c r="J84" s="10">
-        <f t="shared" ref="J84:J86" si="3">I84/267</f>
-        <v>2.6217228464419477E-2</v>
-      </c>
-      <c r="K84" s="11">
-        <f t="shared" ref="K84:K86" si="4">F84/(H84+J84*0.5)</f>
-        <v>0.50090704225352101</v>
-      </c>
+      <c r="H84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="11"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C85" s="1">
         <v>7</v>
@@ -4219,17 +4229,17 @@
         <v>7</v>
       </c>
       <c r="J85" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J85:J87" si="3">I85/267</f>
         <v>2.6217228464419477E-2</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K85:K87" si="4">F85/(H85+J85*0.5)</f>
         <v>0.50090704225352101</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1">
         <v>7</v>
@@ -4240,14 +4250,14 @@
       <c r="E86" s="1">
         <v>21</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="7">
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="G86" s="1">
         <v>8</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" ref="H86" si="5">G86/333</f>
+        <f t="shared" si="2"/>
         <v>2.4024024024024024E-2</v>
       </c>
       <c r="I86" s="1">
@@ -4263,18 +4273,53 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E87">
-        <f>SUM(E23:E86)</f>
-        <v>1042</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87">
-        <f>SUM(G24:G86)</f>
-        <v>308</v>
-      </c>
-      <c r="I87">
-        <f>SUM(I24:I86)</f>
-        <v>236</v>
+      <c r="B87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="1">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1">
+        <v>21</v>
+      </c>
+      <c r="F87" s="8">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>8</v>
+      </c>
+      <c r="H87" s="10">
+        <f t="shared" ref="H87" si="5">G87/333</f>
+        <v>2.4024024024024024E-2</v>
+      </c>
+      <c r="I87" s="1">
+        <v>7</v>
+      </c>
+      <c r="J87" s="10">
+        <f t="shared" si="3"/>
+        <v>2.6217228464419477E-2</v>
+      </c>
+      <c r="K87" s="11">
+        <f t="shared" si="4"/>
+        <v>0.50090704225352101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <f>SUM(E23:E87)</f>
+        <v>1060</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88">
+        <f>SUM(G24:G87)</f>
+        <v>315</v>
+      </c>
+      <c r="I88">
+        <f>SUM(I24:I87)</f>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
+++ b/需求优先级打分/SRA2023-G17-需求优先级打分（学生用户）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F6500E-1466-40C6-AA6C-B0F8B99E9C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DB1C5-1052-467D-8000-FB1671BC1155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
